--- a/src/main/java/com/vapsTechnosoft/IVRM/data/Admission_AttendanceEntry.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/Admission_AttendanceEntry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceEntryTypeData" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,10 @@
     <t>Registration Number</t>
   </si>
   <si>
-    <t>2017-005</t>
-  </si>
-  <si>
-    <t>2017-027</t>
+    <t>2017-019</t>
+  </si>
+  <si>
+    <t>2017-082</t>
   </si>
 </sst>
 </file>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
